--- a/ITAC/InputData/Testinputfile.xlsx
+++ b/ITAC/InputData/Testinputfile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.abhishek\eclipse-workspace\MWATT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.abhishek\git\ITAC\ITAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A368CB-E77B-4C0C-8C8A-7E0E1869A6A6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE3282-DF94-40FC-96EB-1EA41AFFAC63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="696" xr2:uid="{9AA43426-B849-427E-AA78-62A5B442134B}"/>
   </bookViews>
@@ -498,7 +498,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{0EA8F614-4219-4431-8004-409895D4BE62}"/>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{2FF38BA5-6A2C-4A74-9998-1CC0C75B93E9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -535,7 +535,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -568,7 +569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DDE49D-F733-4BE4-A7F8-E59370446AFF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>

--- a/ITAC/InputData/Testinputfile.xlsx
+++ b/ITAC/InputData/Testinputfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s.abhishek\git\ITAC\ITAC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABE3282-DF94-40FC-96EB-1EA41AFFAC63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA07CA3-D04D-4D72-BC94-012B647EC488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="696" xr2:uid="{9AA43426-B849-427E-AA78-62A5B442134B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="696" activeTab="4" xr2:uid="{9AA43426-B849-427E-AA78-62A5B442134B}"/>
   </bookViews>
   <sheets>
     <sheet name="brokenlinks" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Production</t>
   </si>
@@ -42,6 +42,12 @@
   </si>
   <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>https://mc-stage.minecraft.net/en-us</t>
+  </si>
+  <si>
+    <t>https://www.minecraft.net/en-us</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FA501D-E1AF-4F83-9D0B-EB3D00395B95}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -531,7 +537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DBF895-3768-482F-929D-9D90A25EC82A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -549,19 +557,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B0097AD6-28A5-4B12-9EB3-E0C26E23ED41}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D5163E3C-164B-4470-A33A-F37D497A5ABB}"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="https://mc-stage.minecraft.net/en-us" xr:uid="{9B19FB8F-ECF0-43C0-A57B-C0EC2529B69B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
